--- a/Social media followers for sports teams - February 2024 added NFL and MLS.xlsx
+++ b/Social media followers for sports teams - February 2024 added NFL and MLS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://spgl-my.sharepoint.com/personal/kirt_raynes_spglobal_com/Documents/Documents/Notebooks/NBA Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{72DADE0E-A784-4B94-AF44-2198591CB2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDB23AA5-0B93-4572-B4FE-272A6B3A4DC9}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{72DADE0E-A784-4B94-AF44-2198591CB2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB984B8B-CF79-42AD-9664-1E8944E9435B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{73093542-91E7-47B3-B0FC-3338D6D10540}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="1007">
   <si>
     <t>Atlanta Hawks</t>
   </si>
@@ -1951,6 +1951,1116 @@
   </si>
   <si>
     <t>Vancouver Whitecaps FC</t>
+  </si>
+  <si>
+    <t>78500</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/azcardinals</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/arizonacardinals</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@azcardinals</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Cardschatter</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCzNfiKcvNjLHljohEkO83Rg</t>
+  </si>
+  <si>
+    <t>153000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/atlantafalcons</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/atlantafalcons</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@atlantafalcons</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AtlantaFalcons</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCzjCfV3LHyarKbdb-2ScGZg</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ravens</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/baltimoreravens</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@ravens</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ravens</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCbpj2JAUMb8G_oQQFPeGrhg</t>
+  </si>
+  <si>
+    <t>144000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/buffalobills</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/BuffaloBills</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@buffalobills</t>
+  </si>
+  <si>
+    <t>https://twitter.com/buffalobills</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCcEvCxUe2Sm5W6MliEUv0vg</t>
+  </si>
+  <si>
+    <t>128000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/panthers</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/CarolinaPanthers</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@panthers</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/panthers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC6vl4XAyO5mZLczhFC8MgpA</t>
+  </si>
+  <si>
+    <t>187000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/chicagobears</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ChicagoBears</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@chicagobears</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ChicagoBears</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCP0Cdc6moLMyDJiO0s-yhbQ</t>
+  </si>
+  <si>
+    <t>120000</t>
+  </si>
+  <si>
+    <t>http://instagram.com/bengals</t>
+  </si>
+  <si>
+    <t>http://facebook.com/bengals</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@bengals</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Bengals</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCnQUpSnJ39KsjZKbT0CprHQ</t>
+  </si>
+  <si>
+    <t>275000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/clevelandbrowns</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/clevelandbrowns</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@browns</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Browns</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCQQQO7Kdo0cu9iEb19qOoYA</t>
+  </si>
+  <si>
+    <t>391000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/DallasCowboys</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/DallasCowboys</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@dallascowboys</t>
+  </si>
+  <si>
+    <t>https://twitter.com/DallasCowboys</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCC0BPKJxAyxjQoRTYbpW0FQ</t>
+  </si>
+  <si>
+    <t>142000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/broncos</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Broncos</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@broncos</t>
+  </si>
+  <si>
+    <t>https://twitter.com/broncos</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCDGdBexlDZA8T7hnweWWyow</t>
+  </si>
+  <si>
+    <t>175000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/detroitlionsnfl</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/DetroitLions</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@detroitlions</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Lions</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCv5J06V-ESk5_1uriG65f3w</t>
+  </si>
+  <si>
+    <t>146000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/packers</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/packers</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@packers</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/packers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCJtI-l6La0zniodFtSHYrBg</t>
+  </si>
+  <si>
+    <t>84900</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/HoustonTexans</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/HoustonTexans</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@houstontexans</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/HoustonTexans</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCa_FcpOBe8G6VAR18RYS-aA</t>
+  </si>
+  <si>
+    <t>74900</t>
+  </si>
+  <si>
+    <t>http://www.instagram.com/colts</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/colts</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@colts</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/colts</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCyYn26HPC4HIedifGnNbjBw</t>
+  </si>
+  <si>
+    <t>89300</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jaguars</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/jacksonvillejaguars</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@jaguars</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Jaguars</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCsGacW6z0GedR-Wv45SBRZg</t>
+  </si>
+  <si>
+    <t>585000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/Chiefs</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/KansasCityChiefs</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@chiefs</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/Chiefs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC-hXefb6XBFSubWz6Ezf_lA</t>
+  </si>
+  <si>
+    <t>270000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/raiders</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/raiders</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@raiders</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/raiders</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC1es5fp8FEK1L0EgHjCvmtQ</t>
+  </si>
+  <si>
+    <t>307000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/chargers</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/chargers</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@chargers</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Chargers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCUyz_gEY_N-KBU4zjt2s-uQ</t>
+  </si>
+  <si>
+    <t>130000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rams/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Rams</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@rams</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ramsnfl</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCyJ6yZdVUkBvt2vl4R03jcA</t>
+  </si>
+  <si>
+    <t>143000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/miamidolphins</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/MiamiDolphins</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@miamidolphins</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MiamiDolphins</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCHUSfEzpSRkUUsRkk_aJwDw</t>
+  </si>
+  <si>
+    <t>274000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/vikings</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/minnesotavikings</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@vikings</t>
+  </si>
+  <si>
+    <t>https://twitter.com/vikings</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCcsw_KrB_wg5lQ5nXWR_LFA</t>
+  </si>
+  <si>
+    <t>242000</t>
+  </si>
+  <si>
+    <t>http://www.instagram.com/patriots</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/newenglandpatriots</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@patriots</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/patriots</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCMm_V8YjmnZRhToXIqDYDuw</t>
+  </si>
+  <si>
+    <t>125000</t>
+  </si>
+  <si>
+    <t>http://instagram.com/saints</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/neworleanssaints</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@saints</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Saints</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCwuddf1JrodMlc5fYpVlrQA</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>http://www.instagram.com/nygiants</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/newyorkgiants</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@nygiants</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/giants</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCk2FqoG8dN5EAz5WU3A0D7A</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/nyjets</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Jets</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@nyjets</t>
+  </si>
+  <si>
+    <t>https://twitter.com/nyjets</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCROj9vBjc4ZW3AL4cd_BjHg</t>
+  </si>
+  <si>
+    <t>520000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/philadelphiaeagles</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PhiladelphiaEagles</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@philadelphiaeagles</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Eagles</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCaogx6OHpsGg0zuGRKsjbtQ</t>
+  </si>
+  <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/steelers</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/steelers</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@steelers</t>
+  </si>
+  <si>
+    <t>https://twitter.com/steelers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UChaRXjMDs4ppKfnTPE6Z89w</t>
+  </si>
+  <si>
+    <t>358000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/49ers</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SANFRANCISCO49ERS</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@49ers</t>
+  </si>
+  <si>
+    <t>https://twitter.com/49ers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCeIOarQkwmGhimim9cDUTng</t>
+  </si>
+  <si>
+    <t>251000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/seahawks</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Seahawks</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@seahawks</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Seahawks</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCzkFCRiMcOBeef8xcaqipmw</t>
+  </si>
+  <si>
+    <t>208000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/buccaneers</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tampabaybuccaneers</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@bucsnfl</t>
+  </si>
+  <si>
+    <t>https://twitter.com/Buccaneers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC0Wwu7r1ybaaR09ANhudTzA</t>
+  </si>
+  <si>
+    <t>63800</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/titans</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/titans</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@titans</t>
+  </si>
+  <si>
+    <t>https://twitter.com/titans</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCHBsqVkFraWvtNd1w0Qx4_g</t>
+  </si>
+  <si>
+    <t>258000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/commanders</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/CommandersNFL</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@commanders</t>
+  </si>
+  <si>
+    <t>https://twitter.com/commanders</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC2a0ENbCZqIO5C1fWXGXZXA</t>
+  </si>
+  <si>
+    <t>63100</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/atlutd/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AtlantaUnitedFC</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@atlutd</t>
+  </si>
+  <si>
+    <t>https://twitter.com/atlutd</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC8fg8L4X7qpQdHJgxpM4qxw</t>
+  </si>
+  <si>
+    <t>Austin FC</t>
+  </si>
+  <si>
+    <t>9670</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/austinfc/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/AustinFC/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@austinfc</t>
+  </si>
+  <si>
+    <t>https://twitter.com/AustinFC</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC7u24YKDCkuioxWy5hTeTdQ</t>
+  </si>
+  <si>
+    <t>Charlotte FC</t>
+  </si>
+  <si>
+    <t>11700</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/CharlotteFC/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/charlotteFC/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@charlotte.fc</t>
+  </si>
+  <si>
+    <t>https://twitter.com/charlotteFC</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCx4A5iThing38J7V05aLL2g</t>
+  </si>
+  <si>
+    <t>16700</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/chicagofire/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/chicagofire</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@chicagofire</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ChicagoFire</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCMDsGMFC8boMU4I0nNC5bIw</t>
+  </si>
+  <si>
+    <t>10100</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ColoradoRapids/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/coloradorapids/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@coloradorapids</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ColoradoRapids</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCJCvuIrw1gAfQnTJRLGrPDQ</t>
+  </si>
+  <si>
+    <t>14700</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ColumbusCrew/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ColumbusCrew</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@columbuscrew96</t>
+  </si>
+  <si>
+    <t>https://twitter.com/ColumbusCrew</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCWaD_J0qRubgPr9DV_x9-Jw</t>
+  </si>
+  <si>
+    <t>25900</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dcunited/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/dcunited/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@dcunited</t>
+  </si>
+  <si>
+    <t>https://twitter.com/dcunited</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCsnTNtz7kUQNomCGlCQG-AA</t>
+  </si>
+  <si>
+    <t>FC Cincinnati</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/fccincinnati/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/fccincinnati/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@fccincy</t>
+  </si>
+  <si>
+    <t>https://twitter.com/fccincinnati</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCqT7uS7skbqqNrn5LCCozMg</t>
+  </si>
+  <si>
+    <t>45200</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/fcdallas/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/fcdallas</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@fcdofficial</t>
+  </si>
+  <si>
+    <t>https://twitter.com/FCDallas</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCE2JDtOSy6R-9dwkGIWgyEA</t>
+  </si>
+  <si>
+    <t>19400</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/houstondynamo/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/houstondynamo</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@houston.dynamo</t>
+  </si>
+  <si>
+    <t>https://twitter.com/houstondynamo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCMoXjcnOvCwUUm4M6ePY7Gg</t>
+  </si>
+  <si>
+    <t>Inter Miami CF</t>
+  </si>
+  <si>
+    <t>198000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/intermiamicf/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/InterMiamiCF/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@intermiamicf</t>
+  </si>
+  <si>
+    <t>https://twitter.com/intermiamicf</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCcFuqX01k0dCBULXl1YvCsA</t>
+  </si>
+  <si>
+    <t>117000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lagalaxy</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lagalaxy</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@lagalaxy</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/lagalaxy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCQsasqjpe_blMBHbUoWYGZg</t>
+  </si>
+  <si>
+    <t>86000</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lafc/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lafc/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@lafc</t>
+  </si>
+  <si>
+    <t>https://twitter.com/LAFC</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCnqj91wjXAT0bsmxF1fHWBA</t>
+  </si>
+  <si>
+    <t>18400</t>
+  </si>
+  <si>
+    <t>https://instagram.com/mnufc</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/mnunitedfc</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@mnufc</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/mnufc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCnFoCifXR_Qp5iXhK73-kjQ</t>
+  </si>
+  <si>
+    <t>27200</t>
+  </si>
+  <si>
+    <t>https://instagram.com/cfmontreal</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/cfmontreal</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@cfmontreal</t>
+  </si>
+  <si>
+    <t>https://twitter.com/cfmontreal</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC7rAKewGgSTTJ7oEjwv5jzA</t>
+  </si>
+  <si>
+    <t>Nashville SC</t>
+  </si>
+  <si>
+    <t>8600</t>
+  </si>
+  <si>
+    <t>http://instagram.com/nashvillesc</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/NashvilleSC/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@nashvillesc</t>
+  </si>
+  <si>
+    <t>https://twitter.com/nashvillesc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCoyHn37VOAANnjxQjL4LARA</t>
+  </si>
+  <si>
+    <t>15500</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/nerevolution/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nerevolution</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@nerevolution</t>
+  </si>
+  <si>
+    <t>https://twitter.com/nerevolution</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCn1LnRzToob6tRp8V_ijeBQ</t>
+  </si>
+  <si>
+    <t>82200</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/nycfc/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/newyorkcityfc</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@newyorkcityfc</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/nycfc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCmZQ-7cZhtXz8eH6UJza4JA</t>
+  </si>
+  <si>
+    <t>26700</t>
+  </si>
+  <si>
+    <t>https://instagram.com/newyorkredbulls</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/newyorkredbulls</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@redbullnewyork</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/newyorkredbulls</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCOehRhbXyxRGsNO0nkLgZfA</t>
+  </si>
+  <si>
+    <t>19500</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/OrlandoCitySC/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/orlandocitysc</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@orlandocity</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/orlandocitysc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCrCHG9q2F2U57_QSEKHWvIQ</t>
+  </si>
+  <si>
+    <t>16100</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/philaunion</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/philadelphiaunion</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@philaunion</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/philaunion</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCa27XgnHniWKfXcEDGfwIgA</t>
+  </si>
+  <si>
+    <t>22200</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/TimbersFC/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/TimbersFC/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@timbersfc</t>
+  </si>
+  <si>
+    <t>https://twitter.com/TimbersFC</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCm0KnY18KTa_h9bcm3aFEBw</t>
+  </si>
+  <si>
+    <t>16200</t>
+  </si>
+  <si>
+    <t>https://instagram.com/realsaltlake</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/realsaltlake</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@realsaltlakeofficial</t>
+  </si>
+  <si>
+    <t>https://www.twitter.com/realsaltlake</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCGYzqSVKpc7svCtDbb-uEgw</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sjearthquakes/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sanjoseearthquakes/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@sjearthquakes</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SJEarthquakes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCw1I_b0PbB67iqNGdos0HYw</t>
+  </si>
+  <si>
+    <t>399</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/soundersfc/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/SoundersFC</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@soundersfc</t>
+  </si>
+  <si>
+    <t>https://twitter.com/SoundersFC</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCyXDL0_K0CMfV4ghIaiUg1g</t>
+  </si>
+  <si>
+    <t>24500</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sportingkc</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/SportingKC</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@sportingkc</t>
+  </si>
+  <si>
+    <t>http://twitter.com/SportingKC</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCDcDw3eCZvwNQdLfSUzhkTg</t>
+  </si>
+  <si>
+    <t>St. Louis CITY SC</t>
+  </si>
+  <si>
+    <t>12200</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/stlcitysc/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/stlCITYsc/</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@stlcitysc</t>
+  </si>
+  <si>
+    <t>https://twitter.com/stlCITYsc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCNxHd0AvwN7uhyAh7ZpRsdg</t>
+  </si>
+  <si>
+    <t>37200</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/torontofc</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/torontofc</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@torontofc</t>
+  </si>
+  <si>
+    <t>http://twitter.com/torontofc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCc1qA_64TEqAX9pnGJOO0Dw</t>
+  </si>
+  <si>
+    <t>40600</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/whitecapsfc</t>
+  </si>
+  <si>
+    <t>http://www.facebook.com/WhitecapsFC</t>
+  </si>
+  <si>
+    <t>https://www.tiktok.com/@whitecapsfc</t>
+  </si>
+  <si>
+    <t>http://www.twitter.com/WhitecapsFC</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCJ_qxVONy87ISlB2sYwIlvA</t>
   </si>
 </sst>
 </file>
@@ -5760,8 +6870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEEC87F-C5C1-4FEF-85D4-1E336B367620}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5770,6 +6880,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
@@ -5785,9 +6896,7 @@
       <c r="F1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>252</v>
-      </c>
+      <c r="G1" s="6"/>
       <c r="H1" s="6" t="s">
         <v>31</v>
       </c>
@@ -5808,160 +6917,1120 @@
       <c r="A2" t="s">
         <v>582</v>
       </c>
+      <c r="B2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C2">
+        <v>1158149</v>
+      </c>
+      <c r="D2">
+        <v>1300000</v>
+      </c>
+      <c r="E2">
+        <v>910200</v>
+      </c>
+      <c r="F2">
+        <v>150104</v>
+      </c>
+      <c r="H2" t="s">
+        <v>638</v>
+      </c>
+      <c r="I2" t="s">
+        <v>639</v>
+      </c>
+      <c r="J2" t="s">
+        <v>640</v>
+      </c>
+      <c r="K2" t="s">
+        <v>641</v>
+      </c>
+      <c r="L2" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>583</v>
       </c>
+      <c r="B3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C3">
+        <v>1363983</v>
+      </c>
+      <c r="D3">
+        <v>1900000</v>
+      </c>
+      <c r="E3">
+        <v>1100000</v>
+      </c>
+      <c r="F3">
+        <v>2448076</v>
+      </c>
+      <c r="H3" t="s">
+        <v>644</v>
+      </c>
+      <c r="I3" t="s">
+        <v>645</v>
+      </c>
+      <c r="J3" t="s">
+        <v>646</v>
+      </c>
+      <c r="K3" t="s">
+        <v>647</v>
+      </c>
+      <c r="L3" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>584</v>
       </c>
+      <c r="B4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C4">
+        <v>2115212</v>
+      </c>
+      <c r="D4">
+        <v>2300000</v>
+      </c>
+      <c r="E4">
+        <v>1700000</v>
+      </c>
+      <c r="F4">
+        <v>1918879</v>
+      </c>
+      <c r="H4" t="s">
+        <v>650</v>
+      </c>
+      <c r="I4" t="s">
+        <v>651</v>
+      </c>
+      <c r="J4" t="s">
+        <v>652</v>
+      </c>
+      <c r="K4" t="s">
+        <v>653</v>
+      </c>
+      <c r="L4" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>585</v>
       </c>
+      <c r="B5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C5">
+        <v>1754656</v>
+      </c>
+      <c r="D5">
+        <v>1200000</v>
+      </c>
+      <c r="E5">
+        <v>2100000</v>
+      </c>
+      <c r="F5">
+        <v>1784346</v>
+      </c>
+      <c r="H5" t="s">
+        <v>656</v>
+      </c>
+      <c r="I5" t="s">
+        <v>657</v>
+      </c>
+      <c r="J5" t="s">
+        <v>658</v>
+      </c>
+      <c r="K5" t="s">
+        <v>659</v>
+      </c>
+      <c r="L5" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>586</v>
       </c>
+      <c r="B6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C6">
+        <v>1933147</v>
+      </c>
+      <c r="D6">
+        <v>2100000</v>
+      </c>
+      <c r="E6">
+        <v>1100000</v>
+      </c>
+      <c r="F6">
+        <v>3078091</v>
+      </c>
+      <c r="H6" t="s">
+        <v>662</v>
+      </c>
+      <c r="I6" t="s">
+        <v>663</v>
+      </c>
+      <c r="J6" t="s">
+        <v>664</v>
+      </c>
+      <c r="K6" t="s">
+        <v>665</v>
+      </c>
+      <c r="L6" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>587</v>
       </c>
+      <c r="B7" t="s">
+        <v>667</v>
+      </c>
+      <c r="C7">
+        <v>1616274</v>
+      </c>
+      <c r="D7">
+        <v>3600000</v>
+      </c>
+      <c r="E7">
+        <v>1100000</v>
+      </c>
+      <c r="F7">
+        <v>2077300</v>
+      </c>
+      <c r="H7" t="s">
+        <v>668</v>
+      </c>
+      <c r="I7" t="s">
+        <v>669</v>
+      </c>
+      <c r="J7" t="s">
+        <v>670</v>
+      </c>
+      <c r="K7" t="s">
+        <v>671</v>
+      </c>
+      <c r="L7" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>588</v>
       </c>
+      <c r="B8" t="s">
+        <v>673</v>
+      </c>
+      <c r="C8">
+        <v>1659137</v>
+      </c>
+      <c r="D8">
+        <v>1300000</v>
+      </c>
+      <c r="E8">
+        <v>2100000</v>
+      </c>
+      <c r="F8">
+        <v>1588720</v>
+      </c>
+      <c r="H8" t="s">
+        <v>674</v>
+      </c>
+      <c r="I8" t="s">
+        <v>675</v>
+      </c>
+      <c r="J8" t="s">
+        <v>676</v>
+      </c>
+      <c r="K8" t="s">
+        <v>677</v>
+      </c>
+      <c r="L8" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>589</v>
       </c>
+      <c r="B9" t="s">
+        <v>679</v>
+      </c>
+      <c r="C9">
+        <v>1496564</v>
+      </c>
+      <c r="D9">
+        <v>1400000</v>
+      </c>
+      <c r="E9">
+        <v>1100000</v>
+      </c>
+      <c r="F9">
+        <v>1634699</v>
+      </c>
+      <c r="H9" t="s">
+        <v>680</v>
+      </c>
+      <c r="I9" t="s">
+        <v>681</v>
+      </c>
+      <c r="J9" t="s">
+        <v>682</v>
+      </c>
+      <c r="K9" t="s">
+        <v>683</v>
+      </c>
+      <c r="L9" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>590</v>
       </c>
+      <c r="B10" t="s">
+        <v>685</v>
+      </c>
+      <c r="C10">
+        <v>4860742</v>
+      </c>
+      <c r="D10">
+        <v>8100000</v>
+      </c>
+      <c r="E10">
+        <v>2300000</v>
+      </c>
+      <c r="F10">
+        <v>4414480</v>
+      </c>
+      <c r="H10" t="s">
+        <v>686</v>
+      </c>
+      <c r="I10" t="s">
+        <v>687</v>
+      </c>
+      <c r="J10" t="s">
+        <v>688</v>
+      </c>
+      <c r="K10" t="s">
+        <v>689</v>
+      </c>
+      <c r="L10" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>591</v>
       </c>
+      <c r="B11" t="s">
+        <v>691</v>
+      </c>
+      <c r="C11">
+        <v>1446407</v>
+      </c>
+      <c r="D11">
+        <v>3700000</v>
+      </c>
+      <c r="E11">
+        <v>957600</v>
+      </c>
+      <c r="F11">
+        <v>2791983</v>
+      </c>
+      <c r="H11" t="s">
+        <v>692</v>
+      </c>
+      <c r="I11" t="s">
+        <v>693</v>
+      </c>
+      <c r="J11" t="s">
+        <v>694</v>
+      </c>
+      <c r="K11" t="s">
+        <v>695</v>
+      </c>
+      <c r="L11" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>592</v>
       </c>
+      <c r="B12" t="s">
+        <v>697</v>
+      </c>
+      <c r="C12">
+        <v>1333111</v>
+      </c>
+      <c r="D12">
+        <v>1900000</v>
+      </c>
+      <c r="E12">
+        <v>2300000</v>
+      </c>
+      <c r="F12">
+        <v>1664739</v>
+      </c>
+      <c r="H12" t="s">
+        <v>698</v>
+      </c>
+      <c r="I12" t="s">
+        <v>699</v>
+      </c>
+      <c r="J12" t="s">
+        <v>700</v>
+      </c>
+      <c r="K12" t="s">
+        <v>701</v>
+      </c>
+      <c r="L12" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>593</v>
       </c>
+      <c r="B13" t="s">
+        <v>703</v>
+      </c>
+      <c r="C13">
+        <v>2740291</v>
+      </c>
+      <c r="D13">
+        <v>4900000</v>
+      </c>
+      <c r="E13">
+        <v>964700</v>
+      </c>
+      <c r="F13">
+        <v>2618183</v>
+      </c>
+      <c r="H13" t="s">
+        <v>704</v>
+      </c>
+      <c r="I13" t="s">
+        <v>705</v>
+      </c>
+      <c r="J13" t="s">
+        <v>706</v>
+      </c>
+      <c r="K13" t="s">
+        <v>707</v>
+      </c>
+      <c r="L13" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>594</v>
       </c>
+      <c r="B14" t="s">
+        <v>709</v>
+      </c>
+      <c r="C14">
+        <v>1649411</v>
+      </c>
+      <c r="D14">
+        <v>2000000</v>
+      </c>
+      <c r="E14">
+        <v>504100</v>
+      </c>
+      <c r="F14">
+        <v>1997009</v>
+      </c>
+      <c r="H14" t="s">
+        <v>710</v>
+      </c>
+      <c r="I14" t="s">
+        <v>711</v>
+      </c>
+      <c r="J14" t="s">
+        <v>712</v>
+      </c>
+      <c r="K14" t="s">
+        <v>713</v>
+      </c>
+      <c r="L14" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>595</v>
       </c>
+      <c r="B15" t="s">
+        <v>715</v>
+      </c>
+      <c r="C15">
+        <v>977680</v>
+      </c>
+      <c r="D15">
+        <v>1900000</v>
+      </c>
+      <c r="E15">
+        <v>1100000</v>
+      </c>
+      <c r="F15">
+        <v>1246989</v>
+      </c>
+      <c r="H15" t="s">
+        <v>716</v>
+      </c>
+      <c r="I15" t="s">
+        <v>717</v>
+      </c>
+      <c r="J15" t="s">
+        <v>718</v>
+      </c>
+      <c r="K15" t="s">
+        <v>719</v>
+      </c>
+      <c r="L15" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>721</v>
+      </c>
+      <c r="C16">
+        <v>873707</v>
+      </c>
+      <c r="D16">
+        <v>676000</v>
+      </c>
+      <c r="E16">
+        <v>524000</v>
+      </c>
+      <c r="F16">
+        <v>863398</v>
+      </c>
+      <c r="H16" t="s">
+        <v>722</v>
+      </c>
+      <c r="I16" t="s">
+        <v>723</v>
+      </c>
+      <c r="J16" t="s">
+        <v>724</v>
+      </c>
+      <c r="K16" t="s">
+        <v>725</v>
+      </c>
+      <c r="L16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>727</v>
+      </c>
+      <c r="C17">
+        <v>4245534</v>
+      </c>
+      <c r="D17">
+        <v>2700000</v>
+      </c>
+      <c r="E17">
+        <v>4500000</v>
+      </c>
+      <c r="F17">
+        <v>2549688</v>
+      </c>
+      <c r="H17" t="s">
+        <v>728</v>
+      </c>
+      <c r="I17" t="s">
+        <v>729</v>
+      </c>
+      <c r="J17" t="s">
+        <v>730</v>
+      </c>
+      <c r="K17" t="s">
+        <v>731</v>
+      </c>
+      <c r="L17" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>733</v>
+      </c>
+      <c r="C18">
+        <v>2358367</v>
+      </c>
+      <c r="D18">
+        <v>3200000</v>
+      </c>
+      <c r="E18">
+        <v>634200</v>
+      </c>
+      <c r="F18">
+        <v>1943999</v>
+      </c>
+      <c r="H18" t="s">
+        <v>734</v>
+      </c>
+      <c r="I18" t="s">
+        <v>735</v>
+      </c>
+      <c r="J18" t="s">
+        <v>736</v>
+      </c>
+      <c r="K18" t="s">
+        <v>737</v>
+      </c>
+      <c r="L18" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>739</v>
+      </c>
+      <c r="C19">
+        <v>1112985</v>
+      </c>
+      <c r="D19">
+        <v>1400000</v>
+      </c>
+      <c r="E19">
+        <v>1300000</v>
+      </c>
+      <c r="F19">
+        <v>1121139</v>
+      </c>
+      <c r="H19" t="s">
+        <v>740</v>
+      </c>
+      <c r="I19" t="s">
+        <v>741</v>
+      </c>
+      <c r="J19" t="s">
+        <v>742</v>
+      </c>
+      <c r="K19" t="s">
+        <v>743</v>
+      </c>
+      <c r="L19" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>745</v>
+      </c>
+      <c r="C20">
+        <v>1727536</v>
+      </c>
+      <c r="D20">
+        <v>995000</v>
+      </c>
+      <c r="E20">
+        <v>1600000</v>
+      </c>
+      <c r="F20">
+        <v>1251221</v>
+      </c>
+      <c r="H20" t="s">
+        <v>746</v>
+      </c>
+      <c r="I20" t="s">
+        <v>747</v>
+      </c>
+      <c r="J20" t="s">
+        <v>748</v>
+      </c>
+      <c r="K20" t="s">
+        <v>749</v>
+      </c>
+      <c r="L20" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>751</v>
+      </c>
+      <c r="C21">
+        <v>1877218</v>
+      </c>
+      <c r="D21">
+        <v>2100000</v>
+      </c>
+      <c r="E21">
+        <v>1500000</v>
+      </c>
+      <c r="F21">
+        <v>1292544</v>
+      </c>
+      <c r="H21" t="s">
+        <v>752</v>
+      </c>
+      <c r="I21" t="s">
+        <v>753</v>
+      </c>
+      <c r="J21" t="s">
+        <v>754</v>
+      </c>
+      <c r="K21" t="s">
+        <v>755</v>
+      </c>
+      <c r="L21" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>757</v>
+      </c>
+      <c r="C22">
+        <v>1417275</v>
+      </c>
+      <c r="D22">
+        <v>2000000</v>
+      </c>
+      <c r="E22">
+        <v>1200000</v>
+      </c>
+      <c r="F22">
+        <v>1569438</v>
+      </c>
+      <c r="H22" t="s">
+        <v>758</v>
+      </c>
+      <c r="I22" t="s">
+        <v>759</v>
+      </c>
+      <c r="J22" t="s">
+        <v>760</v>
+      </c>
+      <c r="K22" t="s">
+        <v>761</v>
+      </c>
+      <c r="L22" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>763</v>
+      </c>
+      <c r="C23">
+        <v>5036205</v>
+      </c>
+      <c r="D23">
+        <v>6400000</v>
+      </c>
+      <c r="E23">
+        <v>1300000</v>
+      </c>
+      <c r="F23">
+        <v>4677185</v>
+      </c>
+      <c r="H23" t="s">
+        <v>764</v>
+      </c>
+      <c r="I23" t="s">
+        <v>765</v>
+      </c>
+      <c r="J23" t="s">
+        <v>766</v>
+      </c>
+      <c r="K23" t="s">
+        <v>767</v>
+      </c>
+      <c r="L23" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>769</v>
+      </c>
+      <c r="C24">
+        <v>2053665</v>
+      </c>
+      <c r="D24">
+        <v>3700000</v>
+      </c>
+      <c r="E24">
+        <v>1100000</v>
+      </c>
+      <c r="F24">
+        <v>1765701</v>
+      </c>
+      <c r="H24" t="s">
+        <v>770</v>
+      </c>
+      <c r="I24" t="s">
+        <v>771</v>
+      </c>
+      <c r="J24" t="s">
+        <v>772</v>
+      </c>
+      <c r="K24" t="s">
+        <v>773</v>
+      </c>
+      <c r="L24" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>775</v>
+      </c>
+      <c r="C25">
+        <v>2761391</v>
+      </c>
+      <c r="D25">
+        <v>3500000</v>
+      </c>
+      <c r="E25">
+        <v>1300000</v>
+      </c>
+      <c r="F25">
+        <v>2004077</v>
+      </c>
+      <c r="H25" t="s">
+        <v>776</v>
+      </c>
+      <c r="I25" t="s">
+        <v>777</v>
+      </c>
+      <c r="J25" t="s">
+        <v>778</v>
+      </c>
+      <c r="K25" t="s">
+        <v>779</v>
+      </c>
+      <c r="L25" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>661</v>
+      </c>
+      <c r="C26">
+        <v>1155510</v>
+      </c>
+      <c r="D26">
+        <v>1700000</v>
+      </c>
+      <c r="E26">
+        <v>913500</v>
+      </c>
+      <c r="F26">
+        <v>1383738</v>
+      </c>
+      <c r="H26" t="s">
+        <v>781</v>
+      </c>
+      <c r="I26" t="s">
+        <v>782</v>
+      </c>
+      <c r="J26" t="s">
+        <v>783</v>
+      </c>
+      <c r="K26" t="s">
+        <v>784</v>
+      </c>
+      <c r="L26" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>786</v>
+      </c>
+      <c r="C27">
+        <v>3528862</v>
+      </c>
+      <c r="D27">
+        <v>3700000</v>
+      </c>
+      <c r="E27">
+        <v>3000000</v>
+      </c>
+      <c r="F27">
+        <v>3862636</v>
+      </c>
+      <c r="H27" t="s">
+        <v>787</v>
+      </c>
+      <c r="I27" t="s">
+        <v>788</v>
+      </c>
+      <c r="J27" t="s">
+        <v>789</v>
+      </c>
+      <c r="K27" t="s">
+        <v>790</v>
+      </c>
+      <c r="L27" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>792</v>
+      </c>
+      <c r="C28">
+        <v>3649406</v>
+      </c>
+      <c r="D28">
+        <v>5900000</v>
+      </c>
+      <c r="E28">
+        <v>2000000</v>
+      </c>
+      <c r="F28">
+        <v>3759912</v>
+      </c>
+      <c r="H28" t="s">
+        <v>793</v>
+      </c>
+      <c r="I28" t="s">
+        <v>794</v>
+      </c>
+      <c r="J28" t="s">
+        <v>795</v>
+      </c>
+      <c r="K28" t="s">
+        <v>796</v>
+      </c>
+      <c r="L28" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>798</v>
+      </c>
+      <c r="C29">
+        <v>3827848</v>
+      </c>
+      <c r="D29">
+        <v>4000000</v>
+      </c>
+      <c r="E29">
+        <v>2000000</v>
+      </c>
+      <c r="F29">
+        <v>2472660</v>
+      </c>
+      <c r="H29" t="s">
+        <v>799</v>
+      </c>
+      <c r="I29" t="s">
+        <v>800</v>
+      </c>
+      <c r="J29" t="s">
+        <v>801</v>
+      </c>
+      <c r="K29" t="s">
+        <v>802</v>
+      </c>
+      <c r="L29" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>804</v>
+      </c>
+      <c r="C30">
+        <v>3327467</v>
+      </c>
+      <c r="D30">
+        <v>3500000</v>
+      </c>
+      <c r="E30">
+        <v>1200000</v>
+      </c>
+      <c r="F30">
+        <v>2568073</v>
+      </c>
+      <c r="H30" t="s">
+        <v>805</v>
+      </c>
+      <c r="I30" t="s">
+        <v>806</v>
+      </c>
+      <c r="J30" t="s">
+        <v>807</v>
+      </c>
+      <c r="K30" t="s">
+        <v>808</v>
+      </c>
+      <c r="L30" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>810</v>
+      </c>
+      <c r="C31">
+        <v>1476402</v>
+      </c>
+      <c r="D31">
+        <v>1200000</v>
+      </c>
+      <c r="E31">
+        <v>1300000</v>
+      </c>
+      <c r="F31">
+        <v>1313938</v>
+      </c>
+      <c r="H31" t="s">
+        <v>811</v>
+      </c>
+      <c r="I31" t="s">
+        <v>812</v>
+      </c>
+      <c r="J31" t="s">
+        <v>813</v>
+      </c>
+      <c r="K31" t="s">
+        <v>814</v>
+      </c>
+      <c r="L31" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>816</v>
+      </c>
+      <c r="C32">
+        <v>937100</v>
+      </c>
+      <c r="D32">
+        <v>1000000</v>
+      </c>
+      <c r="E32">
+        <v>1200000</v>
+      </c>
+      <c r="F32">
+        <v>1064139</v>
+      </c>
+      <c r="H32" t="s">
+        <v>817</v>
+      </c>
+      <c r="I32" t="s">
+        <v>818</v>
+      </c>
+      <c r="J32" t="s">
+        <v>819</v>
+      </c>
+      <c r="K32" t="s">
+        <v>820</v>
+      </c>
+      <c r="L32" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>613</v>
+      </c>
+      <c r="B33" t="s">
+        <v>822</v>
+      </c>
+      <c r="C33">
+        <v>1104237</v>
+      </c>
+      <c r="D33">
+        <v>1700000</v>
+      </c>
+      <c r="E33">
+        <v>815600</v>
+      </c>
+      <c r="F33">
+        <v>1421533</v>
+      </c>
+      <c r="H33" t="s">
+        <v>823</v>
+      </c>
+      <c r="I33" t="s">
+        <v>824</v>
+      </c>
+      <c r="J33" t="s">
+        <v>825</v>
+      </c>
+      <c r="K33" t="s">
+        <v>826</v>
+      </c>
+      <c r="L33" t="s">
+        <v>827</v>
       </c>
     </row>
   </sheetData>
@@ -5975,10 +8044,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA96CF9-478A-4F4A-A05B-8A8BC3C8275D}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A24"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5987,6 +8056,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>37</v>
       </c>
@@ -6002,9 +8072,7 @@
       <c r="F1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>252</v>
-      </c>
+      <c r="G1" s="6"/>
       <c r="H1" s="6" t="s">
         <v>31</v>
       </c>
@@ -6025,115 +8093,1015 @@
       <c r="A2" t="s">
         <v>614</v>
       </c>
+      <c r="B2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C2">
+        <v>526986</v>
+      </c>
+      <c r="D2">
+        <v>465000</v>
+      </c>
+      <c r="E2">
+        <v>206300</v>
+      </c>
+      <c r="F2">
+        <v>996565</v>
+      </c>
+      <c r="H2" t="s">
+        <v>829</v>
+      </c>
+      <c r="I2" t="s">
+        <v>830</v>
+      </c>
+      <c r="J2" t="s">
+        <v>831</v>
+      </c>
+      <c r="K2" t="s">
+        <v>832</v>
+      </c>
+      <c r="L2" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>615</v>
+        <v>834</v>
+      </c>
+      <c r="B3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C3">
+        <v>207585</v>
+      </c>
+      <c r="D3">
+        <v>96000</v>
+      </c>
+      <c r="E3">
+        <v>82400</v>
+      </c>
+      <c r="F3">
+        <v>91151</v>
+      </c>
+      <c r="H3" t="s">
+        <v>836</v>
+      </c>
+      <c r="I3" t="s">
+        <v>837</v>
+      </c>
+      <c r="J3" t="s">
+        <v>838</v>
+      </c>
+      <c r="K3" t="s">
+        <v>839</v>
+      </c>
+      <c r="L3" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>616</v>
+        <v>841</v>
+      </c>
+      <c r="B4" t="s">
+        <v>842</v>
+      </c>
+      <c r="C4">
+        <v>196484</v>
+      </c>
+      <c r="D4">
+        <v>77000</v>
+      </c>
+      <c r="E4">
+        <v>84000</v>
+      </c>
+      <c r="F4">
+        <v>93227</v>
+      </c>
+      <c r="H4" t="s">
+        <v>843</v>
+      </c>
+      <c r="I4" t="s">
+        <v>844</v>
+      </c>
+      <c r="J4" t="s">
+        <v>845</v>
+      </c>
+      <c r="K4" t="s">
+        <v>846</v>
+      </c>
+      <c r="L4" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>617</v>
+        <v>615</v>
+      </c>
+      <c r="B5" t="s">
+        <v>848</v>
+      </c>
+      <c r="C5">
+        <v>187599</v>
+      </c>
+      <c r="D5">
+        <v>372000</v>
+      </c>
+      <c r="E5">
+        <v>118400</v>
+      </c>
+      <c r="F5">
+        <v>184437</v>
+      </c>
+      <c r="H5" t="s">
+        <v>849</v>
+      </c>
+      <c r="I5" t="s">
+        <v>850</v>
+      </c>
+      <c r="J5" t="s">
+        <v>851</v>
+      </c>
+      <c r="K5" t="s">
+        <v>852</v>
+      </c>
+      <c r="L5" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>618</v>
+        <v>616</v>
+      </c>
+      <c r="B6" t="s">
+        <v>854</v>
+      </c>
+      <c r="C6">
+        <v>116673</v>
+      </c>
+      <c r="D6">
+        <v>229000</v>
+      </c>
+      <c r="E6">
+        <v>37700</v>
+      </c>
+      <c r="F6">
+        <v>124766</v>
+      </c>
+      <c r="H6" t="s">
+        <v>855</v>
+      </c>
+      <c r="I6" t="s">
+        <v>856</v>
+      </c>
+      <c r="J6" t="s">
+        <v>857</v>
+      </c>
+      <c r="K6" t="s">
+        <v>858</v>
+      </c>
+      <c r="L6" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="B7" t="s">
+        <v>860</v>
+      </c>
+      <c r="C7">
+        <v>216612</v>
+      </c>
+      <c r="D7">
+        <v>268000</v>
+      </c>
+      <c r="E7">
+        <v>39800</v>
+      </c>
+      <c r="F7">
+        <v>208270</v>
+      </c>
+      <c r="H7" t="s">
+        <v>861</v>
+      </c>
+      <c r="I7" t="s">
+        <v>862</v>
+      </c>
+      <c r="J7" t="s">
+        <v>863</v>
+      </c>
+      <c r="K7" t="s">
+        <v>864</v>
+      </c>
+      <c r="L7" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>620</v>
+        <v>618</v>
+      </c>
+      <c r="B8" t="s">
+        <v>866</v>
+      </c>
+      <c r="C8">
+        <v>220370</v>
+      </c>
+      <c r="D8">
+        <v>358000</v>
+      </c>
+      <c r="E8">
+        <v>73000</v>
+      </c>
+      <c r="F8">
+        <v>179016</v>
+      </c>
+      <c r="H8" t="s">
+        <v>867</v>
+      </c>
+      <c r="I8" t="s">
+        <v>868</v>
+      </c>
+      <c r="J8" t="s">
+        <v>869</v>
+      </c>
+      <c r="K8" t="s">
+        <v>870</v>
+      </c>
+      <c r="L8" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>621</v>
+        <v>872</v>
+      </c>
+      <c r="B9" t="s">
+        <v>873</v>
+      </c>
+      <c r="C9">
+        <v>168835</v>
+      </c>
+      <c r="D9">
+        <v>148000</v>
+      </c>
+      <c r="E9">
+        <v>15100</v>
+      </c>
+      <c r="F9">
+        <v>140145</v>
+      </c>
+      <c r="H9" t="s">
+        <v>874</v>
+      </c>
+      <c r="I9" t="s">
+        <v>875</v>
+      </c>
+      <c r="J9" t="s">
+        <v>876</v>
+      </c>
+      <c r="K9" t="s">
+        <v>877</v>
+      </c>
+      <c r="L9" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>622</v>
+        <v>619</v>
+      </c>
+      <c r="B10" t="s">
+        <v>879</v>
+      </c>
+      <c r="C10">
+        <v>182848</v>
+      </c>
+      <c r="D10">
+        <v>411000</v>
+      </c>
+      <c r="E10">
+        <v>108500</v>
+      </c>
+      <c r="F10">
+        <v>196095</v>
+      </c>
+      <c r="H10" t="s">
+        <v>880</v>
+      </c>
+      <c r="I10" t="s">
+        <v>881</v>
+      </c>
+      <c r="J10" t="s">
+        <v>882</v>
+      </c>
+      <c r="K10" t="s">
+        <v>883</v>
+      </c>
+      <c r="L10" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>623</v>
+        <v>620</v>
+      </c>
+      <c r="B11" t="s">
+        <v>885</v>
+      </c>
+      <c r="C11">
+        <v>223501</v>
+      </c>
+      <c r="D11">
+        <v>337000</v>
+      </c>
+      <c r="E11">
+        <v>88200</v>
+      </c>
+      <c r="F11">
+        <v>419668</v>
+      </c>
+      <c r="H11" t="s">
+        <v>886</v>
+      </c>
+      <c r="I11" t="s">
+        <v>887</v>
+      </c>
+      <c r="J11" t="s">
+        <v>888</v>
+      </c>
+      <c r="K11" t="s">
+        <v>889</v>
+      </c>
+      <c r="L11" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>624</v>
+        <v>891</v>
+      </c>
+      <c r="B12" t="s">
+        <v>892</v>
+      </c>
+      <c r="C12">
+        <v>16124689</v>
+      </c>
+      <c r="D12">
+        <v>5500000</v>
+      </c>
+      <c r="E12">
+        <v>8200000</v>
+      </c>
+      <c r="F12">
+        <v>1218447</v>
+      </c>
+      <c r="H12" t="s">
+        <v>893</v>
+      </c>
+      <c r="I12" t="s">
+        <v>894</v>
+      </c>
+      <c r="J12" t="s">
+        <v>895</v>
+      </c>
+      <c r="K12" t="s">
+        <v>896</v>
+      </c>
+      <c r="L12" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>625</v>
+        <v>621</v>
+      </c>
+      <c r="B13" t="s">
+        <v>898</v>
+      </c>
+      <c r="C13">
+        <v>1523289</v>
+      </c>
+      <c r="D13">
+        <v>2600000</v>
+      </c>
+      <c r="E13">
+        <v>1300000</v>
+      </c>
+      <c r="F13">
+        <v>539764</v>
+      </c>
+      <c r="H13" t="s">
+        <v>899</v>
+      </c>
+      <c r="I13" t="s">
+        <v>900</v>
+      </c>
+      <c r="J13" t="s">
+        <v>901</v>
+      </c>
+      <c r="K13" t="s">
+        <v>902</v>
+      </c>
+      <c r="L13" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>626</v>
+        <v>622</v>
+      </c>
+      <c r="B14" t="s">
+        <v>904</v>
+      </c>
+      <c r="C14">
+        <v>854598</v>
+      </c>
+      <c r="D14">
+        <v>805000</v>
+      </c>
+      <c r="E14">
+        <v>274400</v>
+      </c>
+      <c r="F14">
+        <v>321280</v>
+      </c>
+      <c r="H14" t="s">
+        <v>905</v>
+      </c>
+      <c r="I14" t="s">
+        <v>906</v>
+      </c>
+      <c r="J14" t="s">
+        <v>907</v>
+      </c>
+      <c r="K14" t="s">
+        <v>908</v>
+      </c>
+      <c r="L14" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>627</v>
+        <v>623</v>
+      </c>
+      <c r="B15" t="s">
+        <v>910</v>
+      </c>
+      <c r="C15">
+        <v>133417</v>
+      </c>
+      <c r="D15">
+        <v>268000</v>
+      </c>
+      <c r="E15">
+        <v>125400</v>
+      </c>
+      <c r="F15">
+        <v>174439</v>
+      </c>
+      <c r="H15" t="s">
+        <v>911</v>
+      </c>
+      <c r="I15" t="s">
+        <v>912</v>
+      </c>
+      <c r="J15" t="s">
+        <v>913</v>
+      </c>
+      <c r="K15" t="s">
+        <v>914</v>
+      </c>
+      <c r="L15" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>624</v>
+      </c>
+      <c r="B16" t="s">
+        <v>916</v>
+      </c>
+      <c r="C16">
+        <v>180027</v>
+      </c>
+      <c r="D16">
+        <v>393000</v>
+      </c>
+      <c r="E16">
+        <v>45800</v>
+      </c>
+      <c r="F16">
+        <v>352518</v>
+      </c>
+      <c r="H16" t="s">
+        <v>917</v>
+      </c>
+      <c r="I16" t="s">
+        <v>918</v>
+      </c>
+      <c r="J16" t="s">
+        <v>919</v>
+      </c>
+      <c r="K16" t="s">
+        <v>920</v>
+      </c>
+      <c r="L16" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>922</v>
+      </c>
+      <c r="B17" t="s">
+        <v>923</v>
+      </c>
+      <c r="C17">
+        <v>159030</v>
+      </c>
+      <c r="D17">
+        <v>109000</v>
+      </c>
+      <c r="E17">
+        <v>54800</v>
+      </c>
+      <c r="F17">
+        <v>84513</v>
+      </c>
+      <c r="H17" t="s">
+        <v>924</v>
+      </c>
+      <c r="I17" t="s">
+        <v>925</v>
+      </c>
+      <c r="J17" t="s">
+        <v>926</v>
+      </c>
+      <c r="K17" t="s">
+        <v>927</v>
+      </c>
+      <c r="L17" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>625</v>
+      </c>
+      <c r="B18" t="s">
+        <v>929</v>
+      </c>
+      <c r="C18">
+        <v>136131</v>
+      </c>
+      <c r="D18">
+        <v>213000</v>
+      </c>
+      <c r="E18">
+        <v>41200</v>
+      </c>
+      <c r="F18">
+        <v>136026</v>
+      </c>
+      <c r="H18" t="s">
+        <v>930</v>
+      </c>
+      <c r="I18" t="s">
+        <v>931</v>
+      </c>
+      <c r="J18" t="s">
+        <v>932</v>
+      </c>
+      <c r="K18" t="s">
+        <v>933</v>
+      </c>
+      <c r="L18" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>626</v>
+      </c>
+      <c r="B19" t="s">
+        <v>935</v>
+      </c>
+      <c r="C19">
+        <v>771010</v>
+      </c>
+      <c r="D19">
+        <v>2200000</v>
+      </c>
+      <c r="E19">
+        <v>207900</v>
+      </c>
+      <c r="F19">
+        <v>397493</v>
+      </c>
+      <c r="H19" t="s">
+        <v>936</v>
+      </c>
+      <c r="I19" t="s">
+        <v>937</v>
+      </c>
+      <c r="J19" t="s">
+        <v>938</v>
+      </c>
+      <c r="K19" t="s">
+        <v>939</v>
+      </c>
+      <c r="L19" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>627</v>
+      </c>
+      <c r="B20" t="s">
+        <v>941</v>
+      </c>
+      <c r="C20">
+        <v>245569</v>
+      </c>
+      <c r="D20">
+        <v>966000</v>
+      </c>
+      <c r="E20">
+        <v>179200</v>
+      </c>
+      <c r="F20">
+        <v>232914</v>
+      </c>
+      <c r="H20" t="s">
+        <v>942</v>
+      </c>
+      <c r="I20" t="s">
+        <v>943</v>
+      </c>
+      <c r="J20" t="s">
+        <v>944</v>
+      </c>
+      <c r="K20" t="s">
+        <v>945</v>
+      </c>
+      <c r="L20" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B21" t="s">
+        <v>947</v>
+      </c>
+      <c r="C21">
+        <v>418009</v>
+      </c>
+      <c r="D21">
+        <v>597000</v>
+      </c>
+      <c r="E21">
+        <v>56300</v>
+      </c>
+      <c r="F21">
+        <v>486908</v>
+      </c>
+      <c r="H21" t="s">
+        <v>948</v>
+      </c>
+      <c r="I21" t="s">
+        <v>949</v>
+      </c>
+      <c r="J21" t="s">
+        <v>950</v>
+      </c>
+      <c r="K21" t="s">
+        <v>951</v>
+      </c>
+      <c r="L21" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B22" t="s">
+        <v>953</v>
+      </c>
+      <c r="C22">
+        <v>375118</v>
+      </c>
+      <c r="D22">
+        <v>237000</v>
+      </c>
+      <c r="E22">
+        <v>116500</v>
+      </c>
+      <c r="F22">
+        <v>187163</v>
+      </c>
+      <c r="H22" t="s">
+        <v>954</v>
+      </c>
+      <c r="I22" t="s">
+        <v>955</v>
+      </c>
+      <c r="J22" t="s">
+        <v>956</v>
+      </c>
+      <c r="K22" t="s">
+        <v>957</v>
+      </c>
+      <c r="L22" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B23" t="s">
+        <v>959</v>
+      </c>
+      <c r="C23">
+        <v>188421</v>
+      </c>
+      <c r="D23">
+        <v>308000</v>
+      </c>
+      <c r="E23">
+        <v>109000</v>
+      </c>
+      <c r="F23">
+        <v>351374</v>
+      </c>
+      <c r="H23" t="s">
+        <v>960</v>
+      </c>
+      <c r="I23" t="s">
+        <v>961</v>
+      </c>
+      <c r="J23" t="s">
+        <v>962</v>
+      </c>
+      <c r="K23" t="s">
+        <v>963</v>
+      </c>
+      <c r="L23" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B24" t="s">
+        <v>965</v>
+      </c>
+      <c r="C24">
+        <v>137270</v>
+      </c>
+      <c r="D24">
+        <v>246000</v>
+      </c>
+      <c r="E24">
+        <v>77200</v>
+      </c>
+      <c r="F24">
+        <v>170433</v>
+      </c>
+      <c r="H24" t="s">
+        <v>966</v>
+      </c>
+      <c r="I24" t="s">
+        <v>967</v>
+      </c>
+      <c r="J24" t="s">
+        <v>968</v>
+      </c>
+      <c r="K24" t="s">
+        <v>969</v>
+      </c>
+      <c r="L24" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B25" t="s">
+        <v>965</v>
+      </c>
+      <c r="C25">
+        <v>169642</v>
+      </c>
+      <c r="D25">
+        <v>235000</v>
+      </c>
+      <c r="E25">
+        <v>163100</v>
+      </c>
+      <c r="F25">
+        <v>278350</v>
+      </c>
+      <c r="H25" t="s">
+        <v>971</v>
+      </c>
+      <c r="I25" t="s">
+        <v>972</v>
+      </c>
+      <c r="J25" t="s">
+        <v>973</v>
+      </c>
+      <c r="K25" t="s">
+        <v>974</v>
+      </c>
+      <c r="L25" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B26" t="s">
+        <v>976</v>
+      </c>
+      <c r="C26">
+        <v>379447</v>
+      </c>
+      <c r="D26">
+        <v>784000</v>
+      </c>
+      <c r="E26">
+        <v>72100</v>
+      </c>
+      <c r="F26">
+        <v>572990</v>
+      </c>
+      <c r="H26" t="s">
+        <v>977</v>
+      </c>
+      <c r="I26" t="s">
+        <v>978</v>
+      </c>
+      <c r="J26" t="s">
+        <v>979</v>
+      </c>
+      <c r="K26" t="s">
+        <v>980</v>
+      </c>
+      <c r="L26" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B27" t="s">
+        <v>982</v>
+      </c>
+      <c r="C27">
+        <v>207083</v>
+      </c>
+      <c r="D27">
+        <v>347000</v>
+      </c>
+      <c r="E27">
+        <v>63800</v>
+      </c>
+      <c r="F27">
+        <v>394531</v>
+      </c>
+      <c r="H27" t="s">
+        <v>983</v>
+      </c>
+      <c r="I27" t="s">
+        <v>984</v>
+      </c>
+      <c r="J27" t="s">
+        <v>985</v>
+      </c>
+      <c r="K27" t="s">
+        <v>986</v>
+      </c>
+      <c r="L27" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>988</v>
+      </c>
+      <c r="B28" t="s">
+        <v>989</v>
+      </c>
+      <c r="C28">
+        <v>156773</v>
+      </c>
+      <c r="D28">
+        <v>220000</v>
+      </c>
+      <c r="E28">
+        <v>55000</v>
+      </c>
+      <c r="F28">
+        <v>110652</v>
+      </c>
+      <c r="H28" t="s">
+        <v>990</v>
+      </c>
+      <c r="I28" t="s">
+        <v>991</v>
+      </c>
+      <c r="J28" t="s">
+        <v>992</v>
+      </c>
+      <c r="K28" t="s">
+        <v>993</v>
+      </c>
+      <c r="L28" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B29" t="s">
+        <v>995</v>
+      </c>
+      <c r="C29">
+        <v>344866</v>
+      </c>
+      <c r="D29">
+        <v>387000</v>
+      </c>
+      <c r="E29">
+        <v>197000</v>
+      </c>
+      <c r="F29">
+        <v>423321</v>
+      </c>
+      <c r="H29" t="s">
+        <v>996</v>
+      </c>
+      <c r="I29" t="s">
+        <v>997</v>
+      </c>
+      <c r="J29" t="s">
+        <v>998</v>
+      </c>
+      <c r="K29" t="s">
+        <v>999</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>636</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C30">
+        <v>184661</v>
+      </c>
+      <c r="D30">
+        <v>280000</v>
+      </c>
+      <c r="E30">
+        <v>126000</v>
+      </c>
+      <c r="F30">
+        <v>330789</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1004</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
